--- a/Documentation/Timeline Spring.xlsx
+++ b/Documentation/Timeline Spring.xlsx
@@ -138,7 +138,7 @@
     <t>Image Button Implementation</t>
   </si>
   <si>
-    <t>Polish Site and Inconsistencies</t>
+    <t>Refine Site and Inconsistencies</t>
   </si>
 </sst>
 </file>
@@ -383,9 +383,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -412,9 +409,6 @@
     <xf numFmtId="0" fontId="3" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -438,6 +432,12 @@
     <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -735,7 +735,7 @@
   <dimension ref="A6:U35"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -749,30 +749,30 @@
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="50"/>
+      <c r="L6" s="50"/>
       <c r="M6" s="2"/>
       <c r="R6" s="2"/>
       <c r="T6" s="2"/>
       <c r="U6" s="2"/>
     </row>
     <row r="7" spans="1:21" s="1" customFormat="1" ht="17.55" customHeight="1">
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
       <c r="N7" s="1" t="s">
         <v>1</v>
       </c>
@@ -781,14 +781,14 @@
       </c>
     </row>
     <row r="8" spans="1:21" s="1" customFormat="1" ht="17.55" customHeight="1">
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
       <c r="N8" s="1" t="s">
         <v>2</v>
       </c>
@@ -797,14 +797,14 @@
       </c>
     </row>
     <row r="9" spans="1:21" s="1" customFormat="1" ht="17.55" customHeight="1">
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
       <c r="N9" s="1" t="s">
         <v>4</v>
       </c>
@@ -815,615 +815,615 @@
       </c>
     </row>
     <row r="11" spans="1:21" ht="33.6">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="26"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="27" t="s">
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="27"/>
-      <c r="L11" s="27"/>
-      <c r="M11" s="26"/>
-      <c r="N11" s="28"/>
-      <c r="O11" s="29"/>
-      <c r="P11" s="26"/>
-      <c r="Q11" s="28"/>
-      <c r="R11" s="26"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="49"/>
+      <c r="J11" s="49"/>
+      <c r="K11" s="49"/>
+      <c r="L11" s="49"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="26"/>
+      <c r="O11" s="27"/>
+      <c r="P11" s="25"/>
+      <c r="Q11" s="26"/>
+      <c r="R11" s="25"/>
       <c r="T11" s="2"/>
       <c r="U11" s="2"/>
     </row>
     <row r="12" spans="1:21" ht="27" customHeight="1">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="40" t="s">
+      <c r="B12" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="29"/>
-      <c r="M12" s="29"/>
-      <c r="N12" s="28"/>
-      <c r="O12" s="28"/>
-      <c r="P12" s="28"/>
-      <c r="Q12" s="28"/>
-      <c r="R12" s="26"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="27"/>
+      <c r="N12" s="26"/>
+      <c r="O12" s="26"/>
+      <c r="P12" s="26"/>
+      <c r="Q12" s="26"/>
+      <c r="R12" s="25"/>
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>
     </row>
     <row r="13" spans="1:21" ht="27" customHeight="1">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="40" t="s">
+      <c r="B13" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="29"/>
-      <c r="L13" s="29"/>
-      <c r="M13" s="29"/>
-      <c r="N13" s="29"/>
-      <c r="O13" s="29"/>
-      <c r="P13" s="26"/>
-      <c r="Q13" s="26"/>
-      <c r="R13" s="26"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="27"/>
+      <c r="N13" s="27"/>
+      <c r="O13" s="27"/>
+      <c r="P13" s="25"/>
+      <c r="Q13" s="25"/>
+      <c r="R13" s="25"/>
       <c r="T13" s="2"/>
       <c r="U13" s="2"/>
     </row>
     <row r="14" spans="1:21" ht="27" customHeight="1">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="30" t="s">
+      <c r="B14" s="7"/>
+      <c r="C14" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="30"/>
-      <c r="L14" s="30"/>
-      <c r="M14" s="30"/>
-      <c r="N14" s="30"/>
-      <c r="O14" s="30"/>
-      <c r="P14" s="31"/>
-      <c r="Q14" s="41"/>
-      <c r="R14" s="32"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="28"/>
+      <c r="M14" s="28"/>
+      <c r="N14" s="28"/>
+      <c r="O14" s="28"/>
+      <c r="P14" s="29"/>
+      <c r="Q14" s="39"/>
+      <c r="R14" s="30"/>
       <c r="S14" s="2"/>
       <c r="T14" s="2"/>
       <c r="U14" s="2"/>
     </row>
     <row r="15" spans="1:21" ht="27" customHeight="1">
-      <c r="A15" s="25" t="s">
+      <c r="A15" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="8"/>
+      <c r="B15" s="7"/>
       <c r="C15" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D15" s="3"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="29"/>
-      <c r="L15" s="29"/>
-      <c r="M15" s="29"/>
-      <c r="N15" s="29"/>
-      <c r="O15" s="29"/>
-      <c r="P15" s="26"/>
-      <c r="Q15" s="9"/>
-      <c r="R15" s="26"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="27"/>
+      <c r="N15" s="27"/>
+      <c r="O15" s="27"/>
+      <c r="P15" s="25"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="25"/>
       <c r="T15" s="2"/>
       <c r="U15" s="2"/>
     </row>
     <row r="16" spans="1:21" ht="27" customHeight="1">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="33" t="s">
+      <c r="B16" s="7"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="G16" s="10"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="29"/>
-      <c r="L16" s="29"/>
-      <c r="M16" s="29"/>
-      <c r="N16" s="29"/>
-      <c r="O16" s="29"/>
-      <c r="P16" s="26"/>
-      <c r="Q16" s="9"/>
-      <c r="R16" s="26"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="27"/>
+      <c r="M16" s="27"/>
+      <c r="N16" s="27"/>
+      <c r="O16" s="27"/>
+      <c r="P16" s="25"/>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="25"/>
       <c r="T16" s="2"/>
       <c r="U16" s="2"/>
     </row>
     <row r="17" spans="1:21" ht="27" customHeight="1">
-      <c r="A17" s="25" t="s">
+      <c r="A17" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="34" t="s">
+      <c r="B17" s="7"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="29"/>
-      <c r="L17" s="29"/>
-      <c r="M17" s="29"/>
-      <c r="N17" s="29"/>
-      <c r="O17" s="29"/>
-      <c r="P17" s="26"/>
-      <c r="Q17" s="20"/>
-      <c r="R17" s="26"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="27"/>
+      <c r="N17" s="27"/>
+      <c r="O17" s="27"/>
+      <c r="P17" s="25"/>
+      <c r="Q17" s="19"/>
+      <c r="R17" s="25"/>
       <c r="S17" s="2"/>
       <c r="T17" s="2"/>
       <c r="U17" s="2"/>
     </row>
     <row r="18" spans="1:21" ht="27" customHeight="1">
-      <c r="A18" s="25" t="s">
+      <c r="A18" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="35" t="s">
+      <c r="B18" s="7"/>
+      <c r="C18" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="29"/>
-      <c r="L18" s="29"/>
-      <c r="M18" s="29"/>
-      <c r="N18" s="29"/>
-      <c r="O18" s="29"/>
-      <c r="P18" s="26"/>
-      <c r="Q18" s="20"/>
-      <c r="R18" s="26"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="27"/>
+      <c r="N18" s="27"/>
+      <c r="O18" s="27"/>
+      <c r="P18" s="25"/>
+      <c r="Q18" s="19"/>
+      <c r="R18" s="25"/>
       <c r="S18" s="2"/>
       <c r="T18" s="2"/>
       <c r="U18" s="2"/>
     </row>
     <row r="19" spans="1:21" ht="27" customHeight="1">
-      <c r="A19" s="25" t="s">
+      <c r="A19" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="36" t="s">
+      <c r="B19" s="7"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="29"/>
-      <c r="L19" s="29"/>
-      <c r="M19" s="29"/>
-      <c r="N19" s="29"/>
-      <c r="O19" s="29"/>
-      <c r="P19" s="26"/>
-      <c r="Q19" s="20"/>
-      <c r="R19" s="26"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="27"/>
+      <c r="L19" s="27"/>
+      <c r="M19" s="27"/>
+      <c r="N19" s="27"/>
+      <c r="O19" s="27"/>
+      <c r="P19" s="25"/>
+      <c r="Q19" s="19"/>
+      <c r="R19" s="25"/>
       <c r="S19" s="2"/>
       <c r="T19" s="2"/>
       <c r="U19" s="2"/>
     </row>
     <row r="20" spans="1:21" ht="27" customHeight="1">
-      <c r="A20" s="25" t="s">
+      <c r="A20" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="37" t="s">
+      <c r="B20" s="7"/>
+      <c r="C20" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="37"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="37"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="29"/>
-      <c r="K20" s="29"/>
-      <c r="L20" s="29"/>
-      <c r="M20" s="29"/>
-      <c r="N20" s="29"/>
-      <c r="O20" s="29"/>
-      <c r="P20" s="26"/>
-      <c r="Q20" s="20"/>
-      <c r="R20" s="26"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="27"/>
+      <c r="L20" s="27"/>
+      <c r="M20" s="27"/>
+      <c r="N20" s="27"/>
+      <c r="O20" s="27"/>
+      <c r="P20" s="25"/>
+      <c r="Q20" s="19"/>
+      <c r="R20" s="25"/>
       <c r="S20" s="2"/>
       <c r="T20" s="2"/>
       <c r="U20" s="2"/>
     </row>
     <row r="21" spans="1:21" ht="27" customHeight="1">
-      <c r="A21" s="25" t="s">
+      <c r="A21" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="38" t="s">
+      <c r="B21" s="7"/>
+      <c r="C21" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="38"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="29"/>
-      <c r="K21" s="29"/>
-      <c r="L21" s="29"/>
-      <c r="M21" s="29"/>
-      <c r="N21" s="29"/>
-      <c r="O21" s="29"/>
-      <c r="P21" s="26"/>
-      <c r="Q21" s="20"/>
-      <c r="R21" s="26"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="27"/>
+      <c r="L21" s="27"/>
+      <c r="M21" s="27"/>
+      <c r="N21" s="27"/>
+      <c r="O21" s="27"/>
+      <c r="P21" s="25"/>
+      <c r="Q21" s="19"/>
+      <c r="R21" s="25"/>
       <c r="S21" s="2"/>
       <c r="T21" s="2"/>
       <c r="U21" s="2"/>
     </row>
     <row r="22" spans="1:21" ht="27" customHeight="1">
-      <c r="A22" s="25" t="s">
+      <c r="A22" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="13" t="s">
+      <c r="B22" s="7"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="I22" s="7"/>
-      <c r="J22" s="29"/>
-      <c r="K22" s="29"/>
-      <c r="L22" s="29"/>
-      <c r="M22" s="29"/>
-      <c r="N22" s="29"/>
-      <c r="O22" s="29"/>
-      <c r="P22" s="26"/>
-      <c r="Q22" s="20"/>
-      <c r="R22" s="26"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="27"/>
+      <c r="L22" s="27"/>
+      <c r="M22" s="27"/>
+      <c r="N22" s="27"/>
+      <c r="O22" s="27"/>
+      <c r="P22" s="25"/>
+      <c r="Q22" s="19"/>
+      <c r="R22" s="25"/>
       <c r="S22" s="2"/>
       <c r="T22" s="2"/>
       <c r="U22" s="2"/>
     </row>
     <row r="23" spans="1:21" ht="27" customHeight="1">
-      <c r="A23" s="25" t="s">
+      <c r="A23" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="18" t="s">
+      <c r="B23" s="7"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="J23" s="29"/>
-      <c r="K23" s="29"/>
-      <c r="L23" s="29"/>
-      <c r="M23" s="29"/>
-      <c r="N23" s="29"/>
-      <c r="O23" s="29"/>
-      <c r="P23" s="26"/>
-      <c r="Q23" s="20"/>
-      <c r="R23" s="26"/>
+      <c r="J23" s="27"/>
+      <c r="K23" s="27"/>
+      <c r="L23" s="27"/>
+      <c r="M23" s="27"/>
+      <c r="N23" s="27"/>
+      <c r="O23" s="27"/>
+      <c r="P23" s="25"/>
+      <c r="Q23" s="19"/>
+      <c r="R23" s="25"/>
       <c r="S23" s="2"/>
       <c r="T23" s="2"/>
       <c r="U23" s="2"/>
     </row>
     <row r="24" spans="1:21" ht="27" customHeight="1">
-      <c r="A24" s="25" t="s">
+      <c r="A24" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="B24" s="8"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="39" t="s">
+      <c r="B24" s="7"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="K24" s="39"/>
-      <c r="L24" s="39"/>
-      <c r="M24" s="39"/>
-      <c r="N24" s="39"/>
-      <c r="O24" s="19"/>
-      <c r="P24" s="32"/>
-      <c r="Q24" s="21"/>
-      <c r="R24" s="26"/>
+      <c r="K24" s="37"/>
+      <c r="L24" s="37"/>
+      <c r="M24" s="37"/>
+      <c r="N24" s="37"/>
+      <c r="O24" s="18"/>
+      <c r="P24" s="30"/>
+      <c r="Q24" s="20"/>
+      <c r="R24" s="25"/>
       <c r="S24" s="2"/>
       <c r="T24" s="2"/>
       <c r="U24" s="2"/>
     </row>
     <row r="25" spans="1:21" ht="27" customHeight="1">
-      <c r="A25" s="25" t="s">
+      <c r="A25" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B25" s="8"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="45" t="s">
+      <c r="B25" s="7"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="K25" s="46"/>
-      <c r="L25" s="29"/>
-      <c r="M25" s="29"/>
-      <c r="N25" s="29"/>
-      <c r="O25" s="7"/>
-      <c r="P25" s="26"/>
-      <c r="Q25" s="20"/>
-      <c r="R25" s="26"/>
+      <c r="K25" s="44"/>
+      <c r="L25" s="27"/>
+      <c r="M25" s="27"/>
+      <c r="N25" s="27"/>
+      <c r="O25" s="6"/>
+      <c r="P25" s="25"/>
+      <c r="Q25" s="19"/>
+      <c r="R25" s="25"/>
       <c r="S25" s="2"/>
       <c r="T25" s="2"/>
       <c r="U25" s="2"/>
     </row>
     <row r="26" spans="1:21" ht="27" customHeight="1">
-      <c r="A26" s="25" t="s">
+      <c r="A26" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="B26" s="8"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="29"/>
-      <c r="K26" s="7"/>
-      <c r="L26" s="49" t="s">
+      <c r="B26" s="7"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="27"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="M26" s="50"/>
-      <c r="N26" s="29"/>
-      <c r="O26" s="7"/>
-      <c r="P26" s="26"/>
-      <c r="Q26" s="20"/>
-      <c r="R26" s="26"/>
+      <c r="M26" s="48"/>
+      <c r="N26" s="27"/>
+      <c r="O26" s="6"/>
+      <c r="P26" s="25"/>
+      <c r="Q26" s="19"/>
+      <c r="R26" s="25"/>
       <c r="S26" s="2"/>
       <c r="T26" s="2"/>
       <c r="U26" s="2"/>
     </row>
     <row r="27" spans="1:21" ht="27" customHeight="1">
-      <c r="A27" s="25" t="s">
+      <c r="A27" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="B27" s="8"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="29"/>
-      <c r="K27" s="7"/>
-      <c r="L27" s="49" t="s">
+      <c r="B27" s="7"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="27"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="M27" s="50"/>
-      <c r="N27" s="29"/>
-      <c r="O27" s="7"/>
-      <c r="P27" s="26"/>
-      <c r="Q27" s="20"/>
-      <c r="R27" s="26"/>
+      <c r="M27" s="48"/>
+      <c r="N27" s="27"/>
+      <c r="O27" s="6"/>
+      <c r="P27" s="25"/>
+      <c r="Q27" s="19"/>
+      <c r="R27" s="25"/>
       <c r="S27" s="2"/>
       <c r="T27" s="2"/>
       <c r="U27" s="2"/>
     </row>
     <row r="28" spans="1:21" ht="27" customHeight="1">
-      <c r="A28" s="25" t="s">
+      <c r="A28" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="B28" s="8"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="29"/>
-      <c r="K28" s="7"/>
-      <c r="L28" s="29"/>
-      <c r="M28" s="7"/>
-      <c r="N28" s="45" t="s">
+      <c r="B28" s="7"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="27"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="27"/>
+      <c r="M28" s="6"/>
+      <c r="N28" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="O28" s="46"/>
-      <c r="P28" s="26"/>
-      <c r="Q28" s="20"/>
-      <c r="R28" s="26"/>
+      <c r="O28" s="44"/>
+      <c r="P28" s="25"/>
+      <c r="Q28" s="19"/>
+      <c r="R28" s="25"/>
       <c r="S28" s="2"/>
       <c r="T28" s="2"/>
       <c r="U28" s="2"/>
     </row>
     <row r="29" spans="1:21" ht="27" customHeight="1">
-      <c r="A29" s="25" t="s">
+      <c r="A29" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="B29" s="8"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="29"/>
-      <c r="K29" s="7"/>
-      <c r="L29" s="29"/>
-      <c r="M29" s="7"/>
-      <c r="N29" s="29"/>
-      <c r="O29" s="7"/>
-      <c r="P29" s="49" t="s">
+      <c r="B29" s="7"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="27"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="27"/>
+      <c r="M29" s="6"/>
+      <c r="N29" s="27"/>
+      <c r="O29" s="6"/>
+      <c r="P29" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="Q29" s="50"/>
-      <c r="R29" s="29"/>
+      <c r="Q29" s="48"/>
+      <c r="R29" s="27"/>
       <c r="S29" s="2"/>
       <c r="T29" s="2"/>
       <c r="U29" s="2"/>
     </row>
     <row r="30" spans="1:21" ht="27" customHeight="1">
-      <c r="A30" s="25" t="s">
+      <c r="A30" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="B30" s="8"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="29"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="29"/>
-      <c r="K30" s="7"/>
-      <c r="L30" s="29"/>
-      <c r="M30" s="7"/>
-      <c r="N30" s="29"/>
-      <c r="O30" s="7"/>
-      <c r="P30" s="49" t="s">
+      <c r="B30" s="7"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="27"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="27"/>
+      <c r="M30" s="6"/>
+      <c r="N30" s="27"/>
+      <c r="O30" s="6"/>
+      <c r="P30" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="Q30" s="50"/>
-      <c r="R30" s="29"/>
+      <c r="Q30" s="48"/>
+      <c r="R30" s="27"/>
       <c r="S30" s="2"/>
       <c r="T30" s="2"/>
       <c r="U30" s="2"/>
     </row>
     <row r="31" spans="1:21" ht="27" customHeight="1">
-      <c r="A31" s="25" t="s">
+      <c r="A31" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="B31" s="8"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="29"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="29"/>
-      <c r="K31" s="7"/>
-      <c r="L31" s="29"/>
-      <c r="M31" s="7"/>
-      <c r="N31" s="29"/>
-      <c r="O31" s="7"/>
-      <c r="P31" s="33" t="s">
+      <c r="B31" s="7"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="27"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="27"/>
+      <c r="M31" s="6"/>
+      <c r="N31" s="27"/>
+      <c r="O31" s="6"/>
+      <c r="P31" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="Q31" s="10"/>
-      <c r="R31" s="29"/>
+      <c r="Q31" s="9"/>
+      <c r="R31" s="27"/>
       <c r="S31" s="2"/>
       <c r="T31" s="2"/>
       <c r="U31" s="2"/>
     </row>
     <row r="32" spans="1:21" ht="27" customHeight="1">
-      <c r="A32" s="25" t="s">
+      <c r="A32" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="B32" s="8"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="29"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="29"/>
-      <c r="K32" s="7"/>
-      <c r="L32" s="29"/>
-      <c r="M32" s="7"/>
-      <c r="N32" s="29"/>
-      <c r="O32" s="7"/>
-      <c r="P32" s="47" t="s">
+      <c r="B32" s="7"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="27"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="27"/>
+      <c r="M32" s="6"/>
+      <c r="N32" s="27"/>
+      <c r="O32" s="6"/>
+      <c r="P32" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="Q32" s="48"/>
-      <c r="R32" s="29"/>
+      <c r="Q32" s="46"/>
+      <c r="R32" s="27"/>
       <c r="S32" s="2"/>
       <c r="T32" s="2"/>
       <c r="U32" s="2"/>
     </row>
     <row r="33" spans="1:21" ht="27" customHeight="1">
-      <c r="A33" s="25" t="s">
+      <c r="A33" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="B33" s="8"/>
-      <c r="C33" s="29"/>
-      <c r="D33" s="29"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="29"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="7"/>
-      <c r="J33" s="29"/>
-      <c r="K33" s="7"/>
-      <c r="L33" s="29"/>
-      <c r="M33" s="7"/>
-      <c r="N33" s="29"/>
-      <c r="O33" s="7"/>
-      <c r="P33" s="29"/>
-      <c r="Q33" s="7"/>
-      <c r="R33" s="42" t="s">
+      <c r="B33" s="7"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="27"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="27"/>
+      <c r="M33" s="6"/>
+      <c r="N33" s="27"/>
+      <c r="O33" s="6"/>
+      <c r="P33" s="27"/>
+      <c r="Q33" s="6"/>
+      <c r="R33" s="40" t="s">
         <v>25</v>
       </c>
       <c r="S33" s="2"/>
@@ -1431,26 +1431,26 @@
       <c r="U33" s="2"/>
     </row>
     <row r="34" spans="1:21" ht="27" customHeight="1">
-      <c r="A34" s="25" t="s">
+      <c r="A34" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="B34" s="8"/>
-      <c r="C34" s="29"/>
-      <c r="D34" s="29"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="29"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="7"/>
-      <c r="J34" s="29"/>
-      <c r="K34" s="7"/>
-      <c r="L34" s="29"/>
-      <c r="M34" s="7"/>
-      <c r="N34" s="29"/>
-      <c r="O34" s="7"/>
-      <c r="P34" s="29"/>
-      <c r="Q34" s="7"/>
-      <c r="R34" s="42" t="s">
+      <c r="B34" s="7"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="27"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="27"/>
+      <c r="M34" s="6"/>
+      <c r="N34" s="27"/>
+      <c r="O34" s="6"/>
+      <c r="P34" s="27"/>
+      <c r="Q34" s="6"/>
+      <c r="R34" s="40" t="s">
         <v>25</v>
       </c>
       <c r="S34" s="2"/>
@@ -1458,58 +1458,58 @@
       <c r="U34" s="2"/>
     </row>
     <row r="35" spans="1:21" ht="31.2">
-      <c r="A35" s="23" t="s">
+      <c r="A35" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B35" s="43">
+      <c r="B35" s="41">
         <v>42023</v>
       </c>
-      <c r="C35" s="43">
+      <c r="C35" s="41">
         <v>42030</v>
       </c>
-      <c r="D35" s="43">
+      <c r="D35" s="41">
         <v>42037</v>
       </c>
-      <c r="E35" s="43">
+      <c r="E35" s="41">
         <v>42044</v>
       </c>
-      <c r="F35" s="44">
+      <c r="F35" s="42">
         <v>42051</v>
       </c>
-      <c r="G35" s="44">
+      <c r="G35" s="42">
         <v>42058</v>
       </c>
-      <c r="H35" s="43">
+      <c r="H35" s="41">
         <v>42065</v>
       </c>
-      <c r="I35" s="44">
+      <c r="I35" s="42">
         <v>42072</v>
       </c>
-      <c r="J35" s="43">
+      <c r="J35" s="41">
         <v>42079</v>
       </c>
-      <c r="K35" s="44">
+      <c r="K35" s="42">
         <v>42086</v>
       </c>
-      <c r="L35" s="43">
+      <c r="L35" s="41">
         <v>42093</v>
       </c>
-      <c r="M35" s="44">
+      <c r="M35" s="42">
         <v>42100</v>
       </c>
-      <c r="N35" s="43">
+      <c r="N35" s="41">
         <v>42107</v>
       </c>
-      <c r="O35" s="44">
+      <c r="O35" s="42">
         <v>42114</v>
       </c>
-      <c r="P35" s="43">
+      <c r="P35" s="41">
         <v>42121</v>
       </c>
-      <c r="Q35" s="44">
+      <c r="Q35" s="42">
         <v>42128</v>
       </c>
-      <c r="R35" s="44">
+      <c r="R35" s="42">
         <v>42135</v>
       </c>
       <c r="S35" s="2"/>

--- a/Documentation/Timeline Spring.xlsx
+++ b/Documentation/Timeline Spring.xlsx
@@ -93,9 +93,6 @@
     <t>Final Presentation</t>
   </si>
   <si>
-    <t>Depoloyment</t>
-  </si>
-  <si>
     <t>Team</t>
   </si>
   <si>
@@ -139,6 +136,9 @@
   </si>
   <si>
     <t>Refine Site and Inconsistencies</t>
+  </si>
+  <si>
+    <t>Deployment</t>
   </si>
 </sst>
 </file>
@@ -735,7 +735,7 @@
   <dimension ref="A6:U35"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -845,7 +845,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="38" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" s="27"/>
       <c r="D12" s="27"/>
@@ -868,10 +868,10 @@
     </row>
     <row r="13" spans="1:21" ht="27" customHeight="1">
       <c r="A13" s="24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B13" s="38" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" s="27"/>
       <c r="D13" s="27"/>
@@ -898,7 +898,7 @@
       </c>
       <c r="B14" s="7"/>
       <c r="C14" s="28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D14" s="28"/>
       <c r="E14" s="28"/>
@@ -925,7 +925,7 @@
       </c>
       <c r="B15" s="7"/>
       <c r="C15" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="10"/>
@@ -947,14 +947,14 @@
     </row>
     <row r="16" spans="1:21" ht="27" customHeight="1">
       <c r="A16" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B16" s="7"/>
       <c r="C16" s="27"/>
       <c r="D16" s="27"/>
       <c r="E16" s="6"/>
       <c r="F16" s="31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G16" s="9"/>
       <c r="H16" s="27"/>
@@ -973,12 +973,12 @@
     </row>
     <row r="17" spans="1:21" ht="27" customHeight="1">
       <c r="A17" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B17" s="7"/>
       <c r="C17" s="27"/>
       <c r="D17" s="32" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E17" s="32"/>
       <c r="F17" s="32"/>
@@ -1004,7 +1004,7 @@
       </c>
       <c r="B18" s="7"/>
       <c r="C18" s="33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D18" s="33"/>
       <c r="E18" s="33"/>
@@ -1032,7 +1032,7 @@
       <c r="B19" s="7"/>
       <c r="C19" s="27"/>
       <c r="D19" s="34" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E19" s="34"/>
       <c r="F19" s="34"/>
@@ -1054,11 +1054,11 @@
     </row>
     <row r="20" spans="1:21" ht="27" customHeight="1">
       <c r="A20" s="24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B20" s="7"/>
       <c r="C20" s="35" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D20" s="35"/>
       <c r="E20" s="35"/>
@@ -1081,11 +1081,11 @@
     </row>
     <row r="21" spans="1:21" ht="27" customHeight="1">
       <c r="A21" s="24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B21" s="7"/>
       <c r="C21" s="36" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D21" s="36"/>
       <c r="E21" s="36"/>
@@ -1108,7 +1108,7 @@
     </row>
     <row r="22" spans="1:21" ht="27" customHeight="1">
       <c r="A22" s="24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B22" s="7"/>
       <c r="C22" s="27"/>
@@ -1117,7 +1117,7 @@
       <c r="F22" s="26"/>
       <c r="G22" s="8"/>
       <c r="H22" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I22" s="6"/>
       <c r="J22" s="27"/>
@@ -1145,7 +1145,7 @@
       <c r="G23" s="8"/>
       <c r="H23" s="7"/>
       <c r="I23" s="17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J23" s="27"/>
       <c r="K23" s="27"/>
@@ -1162,7 +1162,7 @@
     </row>
     <row r="24" spans="1:21" ht="27" customHeight="1">
       <c r="A24" s="24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B24" s="7"/>
       <c r="C24" s="27"/>
@@ -1173,7 +1173,7 @@
       <c r="H24" s="7"/>
       <c r="I24" s="6"/>
       <c r="J24" s="37" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K24" s="37"/>
       <c r="L24" s="37"/>
@@ -1200,7 +1200,7 @@
       <c r="H25" s="7"/>
       <c r="I25" s="6"/>
       <c r="J25" s="43" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K25" s="44"/>
       <c r="L25" s="27"/>
@@ -1229,7 +1229,7 @@
       <c r="J26" s="27"/>
       <c r="K26" s="6"/>
       <c r="L26" s="47" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M26" s="48"/>
       <c r="N26" s="27"/>
@@ -1256,7 +1256,7 @@
       <c r="J27" s="27"/>
       <c r="K27" s="6"/>
       <c r="L27" s="47" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M27" s="48"/>
       <c r="N27" s="27"/>
@@ -1285,7 +1285,7 @@
       <c r="L28" s="27"/>
       <c r="M28" s="6"/>
       <c r="N28" s="43" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O28" s="44"/>
       <c r="P28" s="25"/>
@@ -1314,7 +1314,7 @@
       <c r="N29" s="27"/>
       <c r="O29" s="6"/>
       <c r="P29" s="47" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q29" s="48"/>
       <c r="R29" s="27"/>
@@ -1341,7 +1341,7 @@
       <c r="N30" s="27"/>
       <c r="O30" s="6"/>
       <c r="P30" s="47" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q30" s="48"/>
       <c r="R30" s="27"/>
@@ -1368,7 +1368,7 @@
       <c r="N31" s="27"/>
       <c r="O31" s="6"/>
       <c r="P31" s="31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q31" s="9"/>
       <c r="R31" s="27"/>
@@ -1395,7 +1395,7 @@
       <c r="N32" s="27"/>
       <c r="O32" s="6"/>
       <c r="P32" s="45" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q32" s="46"/>
       <c r="R32" s="27"/>
@@ -1424,7 +1424,7 @@
       <c r="P33" s="27"/>
       <c r="Q33" s="6"/>
       <c r="R33" s="40" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="S33" s="2"/>
       <c r="T33" s="2"/>
@@ -1432,7 +1432,7 @@
     </row>
     <row r="34" spans="1:21" ht="27" customHeight="1">
       <c r="A34" s="24" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="B34" s="7"/>
       <c r="C34" s="27"/>
@@ -1451,7 +1451,7 @@
       <c r="P34" s="27"/>
       <c r="Q34" s="6"/>
       <c r="R34" s="40" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="S34" s="2"/>
       <c r="T34" s="2"/>
